--- a/Nhom18.xlsx
+++ b/Nhom18.xlsx
@@ -346,7 +346,7 @@
     <t>5.1-1</t>
   </si>
   <si>
-    <t>Phần mềm đặt khách sạn</t>
+    <t>Phần mềm HotelHere</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1606,7 @@
   <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="13.8"/>
@@ -1849,15 +1849,15 @@
       </c>
       <c r="P12" s="63"/>
       <c r="Q12" s="64">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R12" s="64"/>
       <c r="S12" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12" s="65"/>
       <c r="U12" s="66">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V12" s="66"/>
       <c r="X12" s="19"/>
@@ -1874,15 +1874,15 @@
       </c>
       <c r="P13" s="111"/>
       <c r="Q13" s="111">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R13" s="111"/>
       <c r="S13" s="111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" s="111"/>
       <c r="U13" s="112">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V13" s="112"/>
       <c r="X13" s="19"/>
@@ -2590,8 +2590,8 @@
   </sheetPr>
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A70" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2621,7 +2621,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="100">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="82" t="s">
         <v>22</v>
@@ -2644,7 +2644,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="89" t="s">
         <v>26</v>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="H4" s="85"/>
       <c r="I4" s="101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="89"/>
       <c r="K4" s="90"/>
@@ -4419,7 +4419,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="D15:E19"/>
     <mergeCell ref="B15:C19"/>
-    <mergeCell ref="H34:I34"/>
     <mergeCell ref="F9:G13"/>
     <mergeCell ref="F15:G19"/>
     <mergeCell ref="B20:C20"/>
@@ -4432,7 +4431,6 @@
     <mergeCell ref="D27:E31"/>
     <mergeCell ref="F27:G31"/>
     <mergeCell ref="B9:C13"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="K27:K31"/>
     <mergeCell ref="B32:K32"/>
     <mergeCell ref="B33:C33"/>
@@ -4444,6 +4442,7 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B40:C44"/>
     <mergeCell ref="D40:E44"/>
     <mergeCell ref="F40:G44"/>
@@ -4457,6 +4456,7 @@
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="B34:C38"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="B47:C51"/>
     <mergeCell ref="D47:E51"/>
     <mergeCell ref="F47:G51"/>
